--- a/exports/statistics/analysis_cortisol_raw_ideal_bedtime.xlsx
+++ b/exports/statistics/analysis_cortisol_raw_ideal_bedtime.xlsx
@@ -185,52 +185,52 @@
     <t>two-sided</t>
   </si>
   <si>
-    <t>3.681e+16</t>
-  </si>
-  <si>
-    <t>3.274e+18</t>
-  </si>
-  <si>
-    <t>2.517e+13</t>
-  </si>
-  <si>
-    <t>3.043e+07</t>
-  </si>
-  <si>
-    <t>1.964e+08</t>
-  </si>
-  <si>
-    <t>377.454</t>
-  </si>
-  <si>
-    <t>0.144</t>
-  </si>
-  <si>
-    <t>0.138</t>
-  </si>
-  <si>
-    <t>1016.175</t>
-  </si>
-  <si>
-    <t>5.347e+07</t>
-  </si>
-  <si>
-    <t>0.27</t>
-  </si>
-  <si>
-    <t>0.273</t>
-  </si>
-  <si>
-    <t>0.261</t>
-  </si>
-  <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>0.384</t>
-  </si>
-  <si>
-    <t>0.268</t>
+    <t>2.402e+17</t>
+  </si>
+  <si>
+    <t>6.145e+21</t>
+  </si>
+  <si>
+    <t>7.863e+14</t>
+  </si>
+  <si>
+    <t>2.041e+08</t>
+  </si>
+  <si>
+    <t>5.777e+08</t>
+  </si>
+  <si>
+    <t>253.009</t>
+  </si>
+  <si>
+    <t>0.148</t>
+  </si>
+  <si>
+    <t>0.108</t>
+  </si>
+  <si>
+    <t>138.04</t>
+  </si>
+  <si>
+    <t>4.281e+06</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>0.899</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>0.309</t>
+  </si>
+  <si>
+    <t>0.324</t>
+  </si>
+  <si>
+    <t>0.285</t>
   </si>
   <si>
     <t>Pairwise t-Tests</t>
@@ -700,10 +700,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.909</v>
+        <v>0.958</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -715,13 +715,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.5610000000000001</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.396</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -732,10 +732,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.971</v>
+        <v>0.97</v>
       </c>
       <c r="D5">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -747,13 +747,13 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0.8100000000000001</v>
+        <v>0.927</v>
       </c>
       <c r="D6">
-        <v>0.003</v>
+        <v>0.278</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -764,13 +764,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.949</v>
+        <v>0.98</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -779,10 +779,10 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.96</v>
+        <v>0.946</v>
       </c>
       <c r="D8">
-        <v>0.64</v>
+        <v>0.499</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -796,10 +796,10 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.95</v>
+        <v>0.969</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -811,10 +811,10 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>0.9350000000000001</v>
+        <v>0.904</v>
       </c>
       <c r="D10">
-        <v>0.264</v>
+        <v>0.13</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.902</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -843,10 +843,10 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>0.843</v>
+        <v>0.827</v>
       </c>
       <c r="D12">
-        <v>0.008</v>
+        <v>0.011</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>23</v>
       </c>
       <c r="C3">
-        <v>0.804</v>
+        <v>1.568</v>
       </c>
       <c r="D3">
-        <v>0.371</v>
+        <v>0.213</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -917,10 +917,10 @@
         <v>23</v>
       </c>
       <c r="C4">
-        <v>0.882</v>
+        <v>0.597</v>
       </c>
       <c r="D4">
-        <v>0.349</v>
+        <v>0.441</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -934,13 +934,13 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>1.501</v>
+        <v>4.841</v>
       </c>
       <c r="D5">
-        <v>0.222</v>
+        <v>0.029</v>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -951,10 +951,10 @@
         <v>23</v>
       </c>
       <c r="C6">
-        <v>0.927</v>
+        <v>3.389</v>
       </c>
       <c r="D6">
-        <v>0.337</v>
+        <v>0.068</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -968,13 +968,13 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>2.973</v>
+        <v>3.959</v>
       </c>
       <c r="D7">
-        <v>0.08699999999999999</v>
+        <v>0.049</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1044,25 +1044,25 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>18.28</v>
+        <v>81.084</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="F3">
-        <v>18.28</v>
+        <v>81.084</v>
       </c>
       <c r="G3">
-        <v>0.157</v>
+        <v>0.897</v>
       </c>
       <c r="H3">
-        <v>0.6929999999999999</v>
+        <v>0.345</v>
       </c>
       <c r="J3">
-        <v>0.001</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1073,19 +1073,19 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>3998.086</v>
+        <v>3329.049</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
       <c r="E4">
-        <v>628</v>
+        <v>560</v>
       </c>
       <c r="F4">
-        <v>999.522</v>
+        <v>832.2619999999999</v>
       </c>
       <c r="G4">
-        <v>52.889</v>
+        <v>55.626</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1094,16 +1094,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.252</v>
+        <v>0.284</v>
       </c>
       <c r="K4">
-        <v>0.487</v>
+        <v>0.492</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.08699999999999999</v>
+        <v>0.101</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1117,25 +1117,25 @@
         <v>38</v>
       </c>
       <c r="C5">
-        <v>55.678</v>
+        <v>11.402</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>628</v>
+        <v>560</v>
       </c>
       <c r="F5">
-        <v>13.92</v>
+        <v>2.851</v>
       </c>
       <c r="G5">
-        <v>0.737</v>
+        <v>0.191</v>
       </c>
       <c r="H5">
-        <v>0.5669999999999999</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="J5">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
     </row>
   </sheetData>
@@ -1223,10 +1223,10 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>-10.392</v>
+        <v>-10.893</v>
       </c>
       <c r="I3">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J3" t="s">
         <v>54</v>
@@ -1244,7 +1244,7 @@
         <v>55</v>
       </c>
       <c r="O3">
-        <v>-0.722</v>
+        <v>-0.834</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1270,10 +1270,10 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>-11.123</v>
+        <v>-12.624</v>
       </c>
       <c r="I4">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J4" t="s">
         <v>54</v>
@@ -1291,7 +1291,7 @@
         <v>56</v>
       </c>
       <c r="O4">
-        <v>-1.086</v>
+        <v>-1.247</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1317,10 +1317,10 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>-9.18</v>
+        <v>-9.907999999999999</v>
       </c>
       <c r="I5">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J5" t="s">
         <v>54</v>
@@ -1338,7 +1338,7 @@
         <v>57</v>
       </c>
       <c r="O5">
-        <v>-0.998</v>
+        <v>-1.127</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1364,10 +1364,10 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>-6.741</v>
+        <v>-7.162</v>
       </c>
       <c r="I6">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J6" t="s">
         <v>54</v>
@@ -1385,7 +1385,7 @@
         <v>58</v>
       </c>
       <c r="O6">
-        <v>-0.745</v>
+        <v>-0.862</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1411,10 +1411,10 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>-7.097</v>
+        <v>-7.362</v>
       </c>
       <c r="I7">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J7" t="s">
         <v>54</v>
@@ -1432,7 +1432,7 @@
         <v>59</v>
       </c>
       <c r="O7">
-        <v>-0.411</v>
+        <v>-0.413</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1458,10 +1458,10 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>-4.237</v>
+        <v>-4.13</v>
       </c>
       <c r="I8">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J8" t="s">
         <v>54</v>
@@ -1479,7 +1479,7 @@
         <v>60</v>
       </c>
       <c r="O8">
-        <v>-0.348</v>
+        <v>-0.359</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>-0.999</v>
+        <v>-0.97</v>
       </c>
       <c r="I9">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J9" t="s">
         <v>54</v>
       </c>
       <c r="K9">
-        <v>0.319</v>
+        <v>0.334</v>
       </c>
       <c r="L9">
-        <v>0.342</v>
+        <v>0.371</v>
       </c>
       <c r="M9" t="s">
         <v>12</v>
@@ -1526,7 +1526,7 @@
         <v>61</v>
       </c>
       <c r="O9">
-        <v>-0.092</v>
+        <v>-0.099</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1552,19 +1552,19 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>0.952</v>
+        <v>0.539</v>
       </c>
       <c r="I10">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J10" t="s">
         <v>54</v>
       </c>
       <c r="K10">
-        <v>0.342</v>
+        <v>0.591</v>
       </c>
       <c r="L10">
-        <v>0.342</v>
+        <v>0.591</v>
       </c>
       <c r="M10" t="s">
         <v>12</v>
@@ -1573,7 +1573,7 @@
         <v>62</v>
       </c>
       <c r="O10">
-        <v>0.048</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1599,10 +1599,10 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>4.495</v>
+        <v>3.96</v>
       </c>
       <c r="I11">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J11" t="s">
         <v>54</v>
@@ -1620,7 +1620,7 @@
         <v>63</v>
       </c>
       <c r="O11">
-        <v>0.294</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1646,10 +1646,10 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>6.849</v>
+        <v>6.394</v>
       </c>
       <c r="I12">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J12" t="s">
         <v>54</v>
@@ -1667,7 +1667,7 @@
         <v>64</v>
       </c>
       <c r="O12">
-        <v>0.239</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1693,22 +1693,22 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>0.281</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="I13">
-        <v>17.606</v>
+        <v>14.272</v>
       </c>
       <c r="J13" t="s">
         <v>54</v>
       </c>
       <c r="K13">
-        <v>0.782</v>
+        <v>0.506</v>
       </c>
       <c r="N13" t="s">
         <v>65</v>
       </c>
       <c r="O13">
-        <v>0.101</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1734,19 +1734,19 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>-0.329</v>
+        <v>1.685</v>
       </c>
       <c r="I14">
-        <v>17.039</v>
+        <v>20.244</v>
       </c>
       <c r="J14" t="s">
         <v>54</v>
       </c>
       <c r="K14">
-        <v>0.746</v>
+        <v>0.107</v>
       </c>
       <c r="L14">
-        <v>0.957</v>
+        <v>0.537</v>
       </c>
       <c r="M14" t="s">
         <v>12</v>
@@ -1755,7 +1755,7 @@
         <v>66</v>
       </c>
       <c r="O14">
-        <v>-0.138</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1781,19 +1781,19 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>-0.054</v>
+        <v>1.245</v>
       </c>
       <c r="I15">
-        <v>17.65</v>
+        <v>16.582</v>
       </c>
       <c r="J15" t="s">
         <v>54</v>
       </c>
       <c r="K15">
-        <v>0.957</v>
+        <v>0.23</v>
       </c>
       <c r="L15">
-        <v>0.957</v>
+        <v>0.575</v>
       </c>
       <c r="M15" t="s">
         <v>12</v>
@@ -1802,7 +1802,7 @@
         <v>67</v>
       </c>
       <c r="O15">
-        <v>-0.019</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1828,19 +1828,19 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>0.413</v>
+        <v>0.474</v>
       </c>
       <c r="I16">
-        <v>18.903</v>
+        <v>14.487</v>
       </c>
       <c r="J16" t="s">
         <v>54</v>
       </c>
       <c r="K16">
-        <v>0.6840000000000001</v>
+        <v>0.642</v>
       </c>
       <c r="L16">
-        <v>0.957</v>
+        <v>0.802</v>
       </c>
       <c r="M16" t="s">
         <v>12</v>
@@ -1849,7 +1849,7 @@
         <v>68</v>
       </c>
       <c r="O16">
-        <v>0.119</v>
+        <v>0.174</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1875,19 +1875,19 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>0.961</v>
+        <v>0.584</v>
       </c>
       <c r="I17">
-        <v>19.239</v>
+        <v>14.578</v>
       </c>
       <c r="J17" t="s">
         <v>54</v>
       </c>
       <c r="K17">
-        <v>0.349</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="L17">
-        <v>0.957</v>
+        <v>0.802</v>
       </c>
       <c r="M17" t="s">
         <v>12</v>
@@ -1896,7 +1896,7 @@
         <v>69</v>
       </c>
       <c r="O17">
-        <v>0.267</v>
+        <v>0.209</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1922,19 +1922,19 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>0.253</v>
+        <v>0.171</v>
       </c>
       <c r="I18">
-        <v>18.248</v>
+        <v>14.237</v>
       </c>
       <c r="J18" t="s">
         <v>54</v>
       </c>
       <c r="K18">
-        <v>0.803</v>
+        <v>0.866</v>
       </c>
       <c r="L18">
-        <v>0.957</v>
+        <v>0.866</v>
       </c>
       <c r="M18" t="s">
         <v>12</v>
@@ -1943,7 +1943,7 @@
         <v>70</v>
       </c>
       <c r="O18">
-        <v>0.081</v>
+        <v>0.067</v>
       </c>
     </row>
   </sheetData>
